--- a/CO Suicidio.xlsx
+++ b/CO Suicidio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\EjercicioEstudiante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77F13C-A51C-4022-AC5B-22EE2A914555}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336C7FF-1B99-4282-BBE8-E2AAA6EBFF35}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
